--- a/dataset/4_DocEx_cases/47_Vega.xlsx
+++ b/dataset/4_DocEx_cases/47_Vega.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Pycharm\NL2Vis\stackoverflow\vistroubleshooting.github.io\Q3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobby\Desktop\RAG\LLM_Vis\data\Aanalysis\vistroubleshooting.github.io\dataset\4_DocEx_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACF42A1-019C-481C-9D91-D7825680A52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491F2D23-215F-4690-A566-3B1D9CFA2B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="16090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -556,45 +556,6 @@
     }
   }]
 }</t>
-  </si>
-  <si>
-    <t>{
-  "$schema": "https://vega.github.io/schema/vega-lite/v5.json",
-  "width": 200,
-  "height": {"step": 19},
-  "data": {"url": "data/movies.json"},
-  "encoding": {"y": {"field": "Major Genre", "type": "nominal", "axis": null}},
-  "layer": [
-    {
-      "mark": {"type": "bar", "color": "#4682b4"},
-      "encoding": {
-        "x": {
-          "aggregate": "mean",
-          "field": "IMDB Rating",
-          "scale": {"domain": [0, 10]},
-          "title": "Mean IMDB Ratings"
-        },
-        "color": {
-          "condition": [
-            {
-              "value": "red",
-              "test": {"field": "Major Genre", "oneOf": ["Drama", "Documentary"]}
-            }
-          ],
-          "value": "#4682b4"
-        }
-      }
-    },
-    {
-      "mark": {"type": "text", "align": "left", "x": 5},
-      "encoding": {
-        "text": {"field": "Major Genre"},
-        "detail": {"aggregate": "count"}
-      }
-    }
-  ]
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Add params asselectand use the param name asconditionin encoding. Checkdocumentationfor more.Below is the code snippet or refereditor.{
@@ -14222,6 +14183,39 @@
 }]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>{
+  "$schema": "https://vega.github.io/schema/vega-lite/v5.json",
+  "width": 200,
+  "height": {"step": 16},
+  "data": {"url": "data/movies.json"},
+  "encoding": {
+    "y": {
+      "field": "Major Genre",
+      "type": "nominal",
+      "axis": null
+    }
+  },
+  "layer": [{
+    "mark": {"type": "bar", "color": "#ddd"},
+    "encoding": {
+      "x": {
+        "aggregate": "mean",
+        "field": "IMDB Rating",
+        "scale": {"domain": [0, 10]},
+        "title": "Mean IMDB Ratings"
+      }
+    }
+  }, {
+    "mark": {"type": "text", "align": "left", "x": 5},
+    "encoding": {
+      "text": {"field": "Major Genre"},
+      "detail": {"aggregate": "count"}
+    }
+  }]
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -14292,7 +14286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -14300,13 +14294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -14591,8 +14579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14603,10 +14591,10 @@
     <col min="8" max="8" width="8.6640625" style="2"/>
     <col min="9" max="9" width="20.9140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="24.25" style="4" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" style="4"/>
-    <col min="14" max="14" width="8.25" style="4" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="24.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="2"/>
+    <col min="14" max="14" width="8.25" style="2" customWidth="1"/>
     <col min="15" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
@@ -14630,22 +14618,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
@@ -14667,13 +14655,13 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>336</v>
+        <v>276</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -14696,17 +14684,17 @@
         <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="4" t="s">
-        <v>325</v>
+        <v>277</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -14729,12 +14717,12 @@
         <v>19</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="K4" s="5"/>
+        <v>278</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -14747,49 +14735,49 @@
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="K5" s="5"/>
+        <v>279</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>60929534</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>316</v>
+        <v>280</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -14797,61 +14785,61 @@
         <v>63408653</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="K7" s="5"/>
+        <v>281</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>62764869</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>317</v>
+        <v>282</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -14859,88 +14847,88 @@
         <v>74796097</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="K9" s="5"/>
+        <v>283</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>60683632</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="K10" s="5"/>
+        <v>284</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>76362013</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>345</v>
+        <v>285</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -14948,28 +14936,28 @@
         <v>68658805</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>346</v>
+        <v>286</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -14977,28 +14965,28 @@
         <v>60151507</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15006,28 +14994,28 @@
         <v>70184042</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>347</v>
+        <v>288</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15035,28 +15023,28 @@
         <v>60759255</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>348</v>
+        <v>289</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15064,25 +15052,25 @@
         <v>45160007</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="I16" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>349</v>
+        <v>281</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15090,28 +15078,28 @@
         <v>64790338</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>350</v>
+        <v>290</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15119,28 +15107,28 @@
         <v>61654169</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>351</v>
+        <v>291</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15148,31 +15136,31 @@
         <v>61738703</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>318</v>
+        <v>292</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15180,25 +15168,25 @@
         <v>72543952</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="I20" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>353</v>
+        <v>293</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15206,28 +15194,28 @@
         <v>75658626</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>354</v>
+        <v>294</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15235,28 +15223,28 @@
         <v>59741643</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G22" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>355</v>
+        <v>295</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15264,25 +15252,25 @@
         <v>59112609</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="I23" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>356</v>
+        <v>296</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15290,25 +15278,25 @@
         <v>69713124</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="I24" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15316,28 +15304,28 @@
         <v>60673598</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="I25" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>319</v>
+        <v>287</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15345,25 +15333,25 @@
         <v>56425430</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="I26" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>357</v>
+        <v>296</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15371,34 +15359,34 @@
         <v>66636702</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="G27" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>326</v>
+        <v>280</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15406,62 +15394,62 @@
         <v>59467415</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="G28" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="L28" s="5"/>
-      <c r="N28" s="5"/>
+        <v>297</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>72754378</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="G29" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>360</v>
+        <v>298</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15469,28 +15457,28 @@
         <v>58933759</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="G30" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>361</v>
+        <v>299</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15498,34 +15486,34 @@
         <v>68346456</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="G31" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>327</v>
+        <v>300</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15533,28 +15521,28 @@
         <v>78518667</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="G32" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>363</v>
+        <v>301</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15562,28 +15550,28 @@
         <v>59477664</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="G33" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>361</v>
+        <v>299</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15591,28 +15579,28 @@
         <v>63445974</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="G34" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>364</v>
+        <v>302</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15620,25 +15608,25 @@
         <v>69634695</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="I35" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>365</v>
+        <v>303</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15646,25 +15634,25 @@
         <v>70980191</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="I36" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>366</v>
+        <v>304</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15672,59 +15660,59 @@
         <v>68990344</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="G37" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
+        <v>294</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
     </row>
     <row r="38" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>77408117</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="G38" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>367</v>
+        <v>305</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15732,64 +15720,64 @@
         <v>54610955</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="G39" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="N39" s="5"/>
+        <v>296</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>59295466</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="G40" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>328</v>
+        <v>306</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15797,31 +15785,31 @@
         <v>61928545</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="G41" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>329</v>
+        <v>307</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15829,31 +15817,31 @@
         <v>64899750</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="G42" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>321</v>
+        <v>282</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15861,28 +15849,28 @@
         <v>59360308</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="G43" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>325</v>
+        <v>308</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15890,28 +15878,28 @@
         <v>77716460</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="G44" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>370</v>
+        <v>309</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15919,28 +15907,28 @@
         <v>70398923</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="G45" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>371</v>
+        <v>310</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15948,28 +15936,28 @@
         <v>76416165</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="G46" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I46" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15977,34 +15965,34 @@
         <v>60934166</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="G47" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>330</v>
+        <v>313</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -16012,31 +16000,31 @@
         <v>78705532</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="G48" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>331</v>
+        <v>314</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/4_DocEx_cases/47_Vega.xlsx
+++ b/dataset/4_DocEx_cases/47_Vega.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobby\Desktop\RAG\LLM_Vis\data\Aanalysis\vistroubleshooting.github.io\dataset\4_DocEx_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491F2D23-215F-4690-A566-3B1D9CFA2B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9188A391-BBD1-4301-8F99-02B77E5EB73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-5690" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14579,8 +14579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
